--- a/Registro/Modello_Logico/ml_registro_individuale.xlsx
+++ b/Registro/Modello_Logico/ml_registro_individuale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\ITS Tech Talent Factory\Materiale del corso\Basi di Dati\DATABASE-FSD1\Registro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\ITS Tech Talent Factory\Materiale del corso\Basi di Dati\DATABASE-FSD1\Registro\Modello_Logico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F193D08-772A-4B5B-818C-CD2E10259FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0277F7E-A608-43F2-90CB-D0932B302F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>REGISTRO</t>
   </si>
@@ -66,9 +66,6 @@
     <t>DOCENTE</t>
   </si>
   <si>
-    <t>Orario</t>
-  </si>
-  <si>
     <t>Materia</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>Firma</t>
+  </si>
+  <si>
+    <t>Orario_inizio</t>
+  </si>
+  <si>
+    <t>Orario_termine</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>5</v>
@@ -679,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>7</v>
@@ -691,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -701,7 +707,7 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -710,13 +716,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -737,14 +743,14 @@
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
@@ -754,23 +760,23 @@
         <v>4</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="8"/>
       <c r="H7" s="17"/>
       <c r="J7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -783,16 +789,16 @@
       <c r="G8" s="8"/>
       <c r="H8" s="18"/>
       <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
@@ -806,7 +812,7 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
@@ -818,7 +824,7 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
@@ -842,7 +848,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="5"/>
       <c r="G13" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="3"/>
@@ -856,132 +862,156 @@
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="17"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="11">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="5"/>
-      <c r="G22" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F23" s="22" t="s">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+      <c r="G24" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F24" s="2" t="s">
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F25" s="2"/>
-      <c r="G25" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>30</v>
+      <c r="G27" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Registro/Modello_Logico/ml_registro_individuale.xlsx
+++ b/Registro/Modello_Logico/ml_registro_individuale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\ITS Tech Talent Factory\Materiale del corso\Basi di Dati\DATABASE-FSD1\Registro\Modello_Logico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\DATABASE-FSD1\Registro\Modello_Logico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0277F7E-A608-43F2-90CB-D0932B302F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19C8A0-B67C-4C8E-8896-971B28F7B410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>REGISTRO</t>
   </si>
@@ -108,12 +108,6 @@
     <t>CF_Studente</t>
   </si>
   <si>
-    <t>A_P</t>
-  </si>
-  <si>
-    <t>M_P</t>
-  </si>
-  <si>
     <t>Data_di_Nascita</t>
   </si>
   <si>
@@ -124,6 +118,54 @@
   </si>
   <si>
     <t>Orario_termine</t>
+  </si>
+  <si>
+    <t>ID_Firma</t>
+  </si>
+  <si>
+    <t>Mattino_Pomeriggio</t>
+  </si>
+  <si>
+    <t>Numero_ordine</t>
+  </si>
+  <si>
+    <t>Nome_docente</t>
+  </si>
+  <si>
+    <t>Cognome_docente</t>
+  </si>
+  <si>
+    <t>Firma_docente</t>
+  </si>
+  <si>
+    <t>Nome_codocente</t>
+  </si>
+  <si>
+    <t>Cognome_codocente</t>
+  </si>
+  <si>
+    <t>Firma_codocente</t>
+  </si>
+  <si>
+    <t>Nome_tutor</t>
+  </si>
+  <si>
+    <t>Cognome_tutor</t>
+  </si>
+  <si>
+    <t>Firma_tutor</t>
+  </si>
+  <si>
+    <t>FSE_obiettivo</t>
+  </si>
+  <si>
+    <t>Dispositivo</t>
+  </si>
+  <si>
+    <t>Data_creazione</t>
+  </si>
+  <si>
+    <t>Data_modifica</t>
   </si>
 </sst>
 </file>
@@ -169,21 +211,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -311,60 +344,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -645,21 +680,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="16"/>
+    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="12"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="7.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
@@ -671,20 +706,20 @@
         <v>0</v>
       </c>
       <c r="C2" s="23"/>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="23"/>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="22" t="s">
@@ -705,9 +740,11 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -722,296 +759,409 @@
         <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="14"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="17"/>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="13"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
       <c r="J8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="17"/>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8"/>
+      <c r="G9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="9"/>
+      <c r="F10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="17"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="17"/>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="17"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="24"/>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="J14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F24" s="5"/>
-      <c r="G24" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F25" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F25" s="18"/>
+      <c r="G25" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+      <c r="G26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E27" s="12"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="12"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E29" s="12"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="26">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F31" s="4"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F32" s="5"/>
+      <c r="G32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="12"/>
+      <c r="F34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+      <c r="G35" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Registro/Modello_Logico/ml_registro_individuale.xlsx
+++ b/Registro/Modello_Logico/ml_registro_individuale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\DATABASE-FSD1\Registro\Modello_Logico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19C8A0-B67C-4C8E-8896-971B28F7B410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A09D9-89F5-4C77-BDB4-C18A349B85D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>PRESENZA</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>FIRMA</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Data_modifica</t>
+  </si>
+  <si>
+    <t>Data_presenza</t>
   </si>
 </sst>
 </file>
@@ -387,6 +387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,7 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -680,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="109" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,104 +697,110 @@
     <col min="8" max="8" width="8.88671875" style="12"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="10">
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="8">
@@ -803,28 +809,28 @@
       <c r="G7" s="6"/>
       <c r="H7" s="13"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="15" t="s">
-        <v>32</v>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="7"/>
       <c r="H8" s="13"/>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="2"/>
+      <c r="K8" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -832,41 +838,41 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="13"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="14"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="13"/>
       <c r="J11" s="8">
@@ -874,68 +880,68 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="H12" s="13"/>
       <c r="J12" s="17"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
+      <c r="G13" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
       <c r="K13" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="J14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="3"/>
@@ -943,164 +949,156 @@
         <v>4</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="13"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="13"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="13"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F25" s="18"/>
       <c r="G25" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F26" s="2"/>
       <c r="G26" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E27" s="12"/>
       <c r="F27" s="2"/>
       <c r="G27" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="12"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="12"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F30" s="26">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="22">
         <v>1</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F31" s="4"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F32" s="5"/>
       <c r="G32" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F33" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="24"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.3">
@@ -1109,38 +1107,38 @@
         <v>4</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
       <c r="F35" s="2"/>
       <c r="G35" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.3">
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.3">
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.3">
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" s="1"/>
     </row>
